--- a/TestcaseDZ.xlsx
+++ b/TestcaseDZ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Т1_login_tel" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="83">
   <si>
     <t>MANUAL TESTING TEST CASE TEMPLATE</t>
   </si>
@@ -267,6 +267,12 @@
   <si>
     <t>Восстановление пароля с недействительным E-mail</t>
   </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Провален</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -345,8 +351,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +427,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -755,15 +787,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1091,14 +1125,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="1"/>
     <cellStyle name="Обычный 4" xfId="3"/>
     <cellStyle name="Обычный 5" xfId="4"/>
     <cellStyle name="Обычный 6" xfId="5"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1351,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1552,7 +1594,9 @@
       <c r="D8" s="137"/>
       <c r="E8" s="138"/>
       <c r="F8" s="132"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="155" t="s">
+        <v>81</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -29285,7 +29329,7 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
@@ -29299,7 +29343,7 @@
   </sheetPr>
   <dimension ref="A1:F994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -30474,10 +30518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F996"/>
+  <dimension ref="A1:G996"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -30490,7 +30534,7 @@
     <col min="7" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1">
+    <row r="1" spans="1:7" ht="45" customHeight="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83" t="s">
         <v>0</v>
@@ -30500,7 +30544,7 @@
       <c r="E1" s="84"/>
       <c r="F1" s="85"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="86"/>
       <c r="B2" s="87" t="s">
         <v>1</v>
@@ -30514,7 +30558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="90"/>
       <c r="B3" s="50" t="s">
         <v>67</v>
@@ -30528,7 +30572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
       <c r="A4" s="86"/>
       <c r="B4" s="91"/>
       <c r="C4" s="92" t="s">
@@ -30540,7 +30584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="86"/>
       <c r="B5" s="95"/>
       <c r="C5" s="142" t="s">
@@ -30552,7 +30596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="9.75" customHeight="1">
+    <row r="6" spans="1:7" ht="9.75" customHeight="1">
       <c r="A6" s="97"/>
       <c r="B6" s="98"/>
       <c r="C6" s="99"/>
@@ -30560,7 +30604,7 @@
       <c r="E6" s="100"/>
       <c r="F6" s="101"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="86"/>
       <c r="B7" s="102"/>
       <c r="C7" s="103" t="s">
@@ -30572,7 +30616,7 @@
       </c>
       <c r="F7" s="105"/>
     </row>
-    <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="75" customHeight="1" thickBot="1">
       <c r="A8" s="86"/>
       <c r="B8" s="106"/>
       <c r="C8" s="145" t="s">
@@ -30581,8 +30625,11 @@
       <c r="D8" s="146"/>
       <c r="E8" s="147"/>
       <c r="F8" s="141"/>
-    </row>
-    <row r="9" spans="1:6" ht="9.75" customHeight="1">
+      <c r="G8" s="155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="9.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="107"/>
       <c r="C9" s="108"/>
@@ -30590,7 +30637,7 @@
       <c r="E9" s="110"/>
       <c r="F9" s="111"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="112"/>
       <c r="B10" s="113" t="s">
         <v>7</v>
@@ -30608,7 +30655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1">
+    <row r="11" spans="1:7" ht="51.75" customHeight="1">
       <c r="A11" s="117"/>
       <c r="B11" s="118">
         <v>1</v>
@@ -30620,7 +30667,7 @@
       <c r="E11" s="120"/>
       <c r="F11" s="120"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1">
+    <row r="12" spans="1:7" ht="51.75" customHeight="1">
       <c r="A12" s="117"/>
       <c r="B12" s="118">
         <v>2</v>
@@ -30634,7 +30681,7 @@
       </c>
       <c r="F12" s="120"/>
     </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1">
+    <row r="13" spans="1:7" ht="51.75" customHeight="1">
       <c r="A13" s="117"/>
       <c r="B13" s="118">
         <v>3</v>
@@ -30648,7 +30695,7 @@
       </c>
       <c r="F13" s="120"/>
     </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1">
+    <row r="14" spans="1:7" ht="51.75" customHeight="1">
       <c r="A14" s="117"/>
       <c r="B14" s="118">
         <v>4</v>
@@ -30664,7 +30711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1">
+    <row r="15" spans="1:7" ht="51.75" customHeight="1">
       <c r="A15" s="117"/>
       <c r="B15" s="118">
         <v>5</v>
@@ -30678,7 +30725,7 @@
       </c>
       <c r="F15" s="120"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -31679,10 +31726,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F997"/>
+  <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -31695,7 +31742,7 @@
     <col min="7" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1">
+    <row r="1" spans="1:7" ht="45" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -31705,7 +31752,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -31719,7 +31766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>68</v>
@@ -31733,7 +31780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -31745,7 +31792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
       <c r="C5" s="148" t="s">
@@ -31757,7 +31804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="9.75" customHeight="1">
+    <row r="6" spans="1:7" ht="9.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -31765,7 +31812,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
@@ -31777,7 +31824,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="75" customHeight="1" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
       <c r="C8" s="145" t="s">
@@ -31786,8 +31833,11 @@
       <c r="D8" s="146"/>
       <c r="E8" s="151"/>
       <c r="F8" s="152"/>
-    </row>
-    <row r="9" spans="1:6" ht="9.75" customHeight="1">
+      <c r="G8" s="155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="9.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -31795,7 +31845,7 @@
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33" t="s">
         <v>7</v>
@@ -31813,7 +31863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1">
+    <row r="11" spans="1:7" ht="51.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
@@ -31825,7 +31875,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1">
+    <row r="12" spans="1:7" ht="51.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
@@ -31839,7 +31889,7 @@
       </c>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1">
+    <row r="13" spans="1:7" ht="51.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
@@ -31853,7 +31903,7 @@
       </c>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1">
+    <row r="14" spans="1:7" ht="51.75" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
@@ -31867,7 +31917,7 @@
       </c>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="1:6" ht="54">
+    <row r="15" spans="1:7" ht="54">
       <c r="A15" s="37"/>
       <c r="B15" s="38">
         <v>5</v>
@@ -31881,7 +31931,7 @@
       </c>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:6" ht="51.75" customHeight="1">
+    <row r="16" spans="1:7" ht="51.75" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="38">
         <v>6</v>
@@ -32896,10 +32946,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F994"/>
+  <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -32912,7 +32962,7 @@
     <col min="7" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1">
+    <row r="1" spans="1:7" ht="45" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -32922,7 +32972,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -32936,7 +32986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>69</v>
@@ -32950,7 +33000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -32962,7 +33012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
       <c r="C5" s="148" t="s">
@@ -32974,7 +33024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="9.75" customHeight="1">
+    <row r="6" spans="1:7" ht="9.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -32982,7 +33032,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
@@ -32994,7 +33044,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="75" customHeight="1" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="26"/>
       <c r="C8" s="153" t="s">
@@ -33004,7 +33054,7 @@
       <c r="E8" s="154"/>
       <c r="F8" s="152"/>
     </row>
-    <row r="9" spans="1:6" ht="9.75" customHeight="1">
+    <row r="9" spans="1:7" ht="9.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -33012,7 +33062,7 @@
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33" t="s">
         <v>7</v>
@@ -33030,7 +33080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" customHeight="1">
+    <row r="11" spans="1:7" ht="51.75" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="38">
         <v>1</v>
@@ -33042,7 +33092,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="51.75" customHeight="1">
+    <row r="12" spans="1:7" ht="51.75" customHeight="1">
       <c r="A12" s="37"/>
       <c r="B12" s="38">
         <v>2</v>
@@ -33055,8 +33105,11 @@
         <v>41</v>
       </c>
       <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6" ht="51.75" customHeight="1">
+      <c r="G12" s="156" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51.75" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="38">
         <v>3</v>
@@ -33068,7 +33121,7 @@
       <c r="E13" s="126"/>
       <c r="F13" s="126"/>
     </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1">
+    <row r="14" spans="1:7" ht="51.75" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="38">
         <v>4</v>
@@ -33084,8 +33137,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
